--- a/data/pca/factorExposure/factorExposure_2018-02-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.005017647183893623</v>
+        <v>-0.01139881501027627</v>
       </c>
       <c r="C2">
-        <v>-0.005813883169826519</v>
+        <v>-0.0233463513720855</v>
       </c>
       <c r="D2">
-        <v>-0.02543811296349927</v>
+        <v>-0.02594994983063897</v>
       </c>
       <c r="E2">
-        <v>0.0447572761528079</v>
+        <v>0.01165171016327773</v>
       </c>
       <c r="F2">
-        <v>0.05023479572572893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.005323828474266231</v>
+      </c>
+      <c r="G2">
+        <v>-0.0105121421926647</v>
+      </c>
+      <c r="H2">
+        <v>-0.03390892333423308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.06715268685609352</v>
+        <v>-0.0598520144231508</v>
       </c>
       <c r="C3">
-        <v>-0.004364220457044802</v>
+        <v>-0.07852472066531382</v>
       </c>
       <c r="D3">
-        <v>0.01279114874928765</v>
+        <v>-0.01010406389783269</v>
       </c>
       <c r="E3">
-        <v>0.1581554227135606</v>
+        <v>0.05269832543433171</v>
       </c>
       <c r="F3">
-        <v>0.234168226949631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.01414673172472454</v>
+      </c>
+      <c r="G3">
+        <v>-0.08741698868693999</v>
+      </c>
+      <c r="H3">
+        <v>-0.1061493295457444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03588910242455007</v>
+        <v>-0.03827691459107496</v>
       </c>
       <c r="C4">
-        <v>0.01016517357738404</v>
+        <v>-0.06045842612493413</v>
       </c>
       <c r="D4">
-        <v>-0.02811708080653747</v>
+        <v>-0.02094009852548611</v>
       </c>
       <c r="E4">
-        <v>-0.001247685945435637</v>
+        <v>-0.004268377912608473</v>
       </c>
       <c r="F4">
-        <v>0.04910605717858714</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01328775822685764</v>
+      </c>
+      <c r="G4">
+        <v>-0.05101560380410653</v>
+      </c>
+      <c r="H4">
+        <v>-0.01221597320382808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04467353739391618</v>
+        <v>-0.02157460448664526</v>
       </c>
       <c r="C6">
-        <v>-0.005954911743973956</v>
+        <v>-0.05778215510525191</v>
       </c>
       <c r="D6">
-        <v>-0.03913013775879421</v>
+        <v>-0.01585543503571346</v>
       </c>
       <c r="E6">
-        <v>-0.01447634446543958</v>
+        <v>-0.004234338254488915</v>
       </c>
       <c r="F6">
-        <v>0.04281090389399839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.002080007440338541</v>
+      </c>
+      <c r="G6">
+        <v>-0.02997467601597497</v>
+      </c>
+      <c r="H6">
+        <v>-0.01505213684695627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03725811174850349</v>
+        <v>-0.006379117205652649</v>
       </c>
       <c r="C7">
-        <v>0.06504834716552965</v>
+        <v>-0.02600667107935244</v>
       </c>
       <c r="D7">
-        <v>-0.004399430500211032</v>
+        <v>-0.01253278837996236</v>
       </c>
       <c r="E7">
-        <v>-0.0003897328900300714</v>
+        <v>-0.01737102628175148</v>
       </c>
       <c r="F7">
-        <v>0.01457353670094636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.07166501832367386</v>
+      </c>
+      <c r="G7">
+        <v>-0.02386767041356373</v>
+      </c>
+      <c r="H7">
+        <v>-0.01524678947236815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.005365439974081963</v>
+        <v>0.007809044806154028</v>
       </c>
       <c r="C8">
-        <v>0.01243028684675332</v>
+        <v>0.002328457480486911</v>
       </c>
       <c r="D8">
-        <v>-0.02271285873722195</v>
+        <v>-0.001934773020781413</v>
       </c>
       <c r="E8">
-        <v>0.005599462640740228</v>
+        <v>0.003991704584618527</v>
       </c>
       <c r="F8">
-        <v>0.04331987842523257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01387600174074976</v>
+      </c>
+      <c r="G8">
+        <v>-0.0199705691330612</v>
+      </c>
+      <c r="H8">
+        <v>-0.005022255071651513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02956168441971741</v>
+        <v>-0.01764715800089617</v>
       </c>
       <c r="C9">
-        <v>0.008706395920575837</v>
+        <v>-0.0417507203750291</v>
       </c>
       <c r="D9">
-        <v>-0.03027376850859871</v>
+        <v>-0.01521191759868868</v>
       </c>
       <c r="E9">
-        <v>0.02776424772151212</v>
+        <v>-0.0007925493665715502</v>
       </c>
       <c r="F9">
-        <v>0.05199146720376142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0179122021737702</v>
+      </c>
+      <c r="G9">
+        <v>-0.02334614198925807</v>
+      </c>
+      <c r="H9">
+        <v>-0.02656685273129453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05446016435849271</v>
+        <v>-0.1156541195857212</v>
       </c>
       <c r="C10">
-        <v>-0.01362067883698131</v>
+        <v>0.1664296462348167</v>
       </c>
       <c r="D10">
-        <v>0.1529907546607354</v>
+        <v>0.02619334066582538</v>
       </c>
       <c r="E10">
-        <v>0.07404513820226759</v>
+        <v>0.0269548589692039</v>
       </c>
       <c r="F10">
-        <v>-0.002204287714059259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03906414796784799</v>
+      </c>
+      <c r="G10">
+        <v>0.01637774047891105</v>
+      </c>
+      <c r="H10">
+        <v>-0.011506378826439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02712241274871237</v>
+        <v>-0.01631824305694985</v>
       </c>
       <c r="C11">
-        <v>-0.00620894660621686</v>
+        <v>-0.04480973886606781</v>
       </c>
       <c r="D11">
-        <v>-0.04151344155876196</v>
+        <v>-0.001342428548414221</v>
       </c>
       <c r="E11">
-        <v>-0.01021270897848001</v>
+        <v>-0.008847501496271459</v>
       </c>
       <c r="F11">
-        <v>0.01859086677541646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.002127072398604742</v>
+      </c>
+      <c r="G11">
+        <v>-0.01869903111693532</v>
+      </c>
+      <c r="H11">
+        <v>-0.03187450702978421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03533666540035979</v>
+        <v>-0.01956763288639975</v>
       </c>
       <c r="C12">
-        <v>-0.002502090331293675</v>
+        <v>-0.04099671016258796</v>
       </c>
       <c r="D12">
-        <v>-0.03615595205063418</v>
+        <v>-0.005331659481186785</v>
       </c>
       <c r="E12">
-        <v>-0.02423714938069612</v>
+        <v>-0.0131305935074316</v>
       </c>
       <c r="F12">
-        <v>0.001565027679959701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01204299138636243</v>
+      </c>
+      <c r="G12">
+        <v>-0.01047398186082216</v>
+      </c>
+      <c r="H12">
+        <v>-0.01182906141600906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01346677847824747</v>
+        <v>-0.01237744104159638</v>
       </c>
       <c r="C13">
-        <v>-0.01106304818306257</v>
+        <v>-0.01836619185562654</v>
       </c>
       <c r="D13">
-        <v>-0.003855206028700142</v>
+        <v>-0.02210908367015958</v>
       </c>
       <c r="E13">
-        <v>0.02408579387611078</v>
+        <v>0.01416164211747011</v>
       </c>
       <c r="F13">
-        <v>0.04923570225494397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.004807292401732146</v>
+      </c>
+      <c r="G13">
+        <v>-0.037449122730668</v>
+      </c>
+      <c r="H13">
+        <v>-0.03765095175112104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01864622194133899</v>
+        <v>-0.004770143858702633</v>
       </c>
       <c r="C14">
-        <v>0.01489568134239535</v>
+        <v>-0.01731904275649171</v>
       </c>
       <c r="D14">
-        <v>-0.007813291537363857</v>
+        <v>-0.007892334803192826</v>
       </c>
       <c r="E14">
-        <v>0.003363266614610181</v>
+        <v>-0.006332165378339982</v>
       </c>
       <c r="F14">
-        <v>0.03775875011544878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02802602713626181</v>
+      </c>
+      <c r="G14">
+        <v>-0.01894542348462266</v>
+      </c>
+      <c r="H14">
+        <v>-0.006122101663876444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02390304336285998</v>
+        <v>-0.01555303254781952</v>
       </c>
       <c r="C16">
-        <v>-0.001927637264883776</v>
+        <v>-0.03737768623028424</v>
       </c>
       <c r="D16">
-        <v>-0.03982745811013181</v>
+        <v>-0.0009613214755335922</v>
       </c>
       <c r="E16">
-        <v>-0.009519449705668096</v>
+        <v>-0.00622265636463403</v>
       </c>
       <c r="F16">
-        <v>0.02044087436112661</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.004837254997895166</v>
+      </c>
+      <c r="G16">
+        <v>-0.01657647189023</v>
+      </c>
+      <c r="H16">
+        <v>-0.01941894590105987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02651066114147723</v>
+        <v>-0.0168347043383815</v>
       </c>
       <c r="C19">
-        <v>-0.004446641424970417</v>
+        <v>-0.03774535248030388</v>
       </c>
       <c r="D19">
-        <v>-0.02857774376319145</v>
+        <v>-0.01278077014991024</v>
       </c>
       <c r="E19">
-        <v>-0.0019610331224981</v>
+        <v>0.0167056038149802</v>
       </c>
       <c r="F19">
-        <v>0.07738847800922442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.006108663049556099</v>
+      </c>
+      <c r="G19">
+        <v>-0.05050252428409942</v>
+      </c>
+      <c r="H19">
+        <v>-0.02588251432378972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005708211103789702</v>
+        <v>-0.0005060543822526198</v>
       </c>
       <c r="C20">
-        <v>0.009032634965915621</v>
+        <v>-0.01829617610369803</v>
       </c>
       <c r="D20">
-        <v>0.001771915907833282</v>
+        <v>-0.01201995082064232</v>
       </c>
       <c r="E20">
-        <v>0.01845467604943285</v>
+        <v>0.0118241635087481</v>
       </c>
       <c r="F20">
-        <v>0.02616477153044026</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.009961668733944188</v>
+      </c>
+      <c r="G20">
+        <v>-0.02372849555693368</v>
+      </c>
+      <c r="H20">
+        <v>-0.01479731155924389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03932730527718733</v>
+        <v>-0.007358529379726282</v>
       </c>
       <c r="C21">
-        <v>0.01861557015926001</v>
+        <v>-0.01859131023651129</v>
       </c>
       <c r="D21">
-        <v>-0.01977946805344543</v>
+        <v>-0.01443800275067894</v>
       </c>
       <c r="E21">
-        <v>0.003879477750947671</v>
+        <v>0.0121786881141011</v>
       </c>
       <c r="F21">
-        <v>0.03317178543295565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.03333910257902031</v>
+      </c>
+      <c r="G21">
+        <v>-0.03112829024954577</v>
+      </c>
+      <c r="H21">
+        <v>-0.03052717426734186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0220307418798389</v>
+        <v>-0.009675205079876546</v>
       </c>
       <c r="C24">
-        <v>-0.002461009038841494</v>
+        <v>-0.03733252376309291</v>
       </c>
       <c r="D24">
-        <v>-0.03038845128425668</v>
+        <v>-0.006149688860182041</v>
       </c>
       <c r="E24">
-        <v>-0.008114771881641036</v>
+        <v>-0.0114353572461002</v>
       </c>
       <c r="F24">
-        <v>0.01741846353239864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.003037553159756954</v>
+      </c>
+      <c r="G24">
+        <v>-0.01404691179991706</v>
+      </c>
+      <c r="H24">
+        <v>-0.02670586444147201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03430523318375148</v>
+        <v>-0.02591234959374917</v>
       </c>
       <c r="C25">
-        <v>-0.004354960053671767</v>
+        <v>-0.0470498623071083</v>
       </c>
       <c r="D25">
-        <v>-0.03246528854614716</v>
+        <v>-0.00979624772611587</v>
       </c>
       <c r="E25">
-        <v>0.0001292085712087491</v>
+        <v>-0.01751975055580005</v>
       </c>
       <c r="F25">
-        <v>0.03026505052494438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.007423227232940442</v>
+      </c>
+      <c r="G25">
+        <v>-0.02145417291029681</v>
+      </c>
+      <c r="H25">
+        <v>-0.01860147519012776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01152663244902414</v>
+        <v>-0.002703237963933473</v>
       </c>
       <c r="C26">
-        <v>0.008535489827399849</v>
+        <v>0.0002571902239189232</v>
       </c>
       <c r="D26">
-        <v>-0.009843312733050042</v>
+        <v>-0.02306569004768967</v>
       </c>
       <c r="E26">
-        <v>0.03463116228080264</v>
+        <v>-0.001994543457653656</v>
       </c>
       <c r="F26">
-        <v>0.02644645657966011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.02040195918840363</v>
+      </c>
+      <c r="G26">
+        <v>-0.0051436037801775</v>
+      </c>
+      <c r="H26">
+        <v>-0.01077788674747142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.009779781980161375</v>
+        <v>-0.002971773217255687</v>
       </c>
       <c r="C27">
-        <v>0.003387508273233585</v>
+        <v>-0.0005560128369584273</v>
       </c>
       <c r="D27">
-        <v>0.004693286885637035</v>
+        <v>0.0005155798585819878</v>
       </c>
       <c r="E27">
-        <v>-0.002009004104080757</v>
+        <v>0.001213302389548219</v>
       </c>
       <c r="F27">
-        <v>0.007249658408783816</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.007520186233763384</v>
+      </c>
+      <c r="G27">
+        <v>-0.001507431847642321</v>
+      </c>
+      <c r="H27">
+        <v>0.002421721868432113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0926088037402798</v>
+        <v>-0.1600015949224811</v>
       </c>
       <c r="C28">
-        <v>-0.02675607860470837</v>
+        <v>0.2088288015219618</v>
       </c>
       <c r="D28">
-        <v>0.2218729331565958</v>
+        <v>0.02176090229540007</v>
       </c>
       <c r="E28">
-        <v>0.08398539315739122</v>
+        <v>0.01905807008531876</v>
       </c>
       <c r="F28">
-        <v>-0.005636345651421217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04429374438036353</v>
+      </c>
+      <c r="G28">
+        <v>0.009027759947407807</v>
+      </c>
+      <c r="H28">
+        <v>-0.006413113715773314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02081596581840519</v>
+        <v>-0.01064299123179086</v>
       </c>
       <c r="C29">
-        <v>0.01078816650140184</v>
+        <v>-0.01541654614467224</v>
       </c>
       <c r="D29">
-        <v>-0.008995366174228763</v>
+        <v>-0.006542583610107711</v>
       </c>
       <c r="E29">
-        <v>0.001989320745044118</v>
+        <v>-0.005734970934002404</v>
       </c>
       <c r="F29">
-        <v>0.03673959086351664</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.024748957268054</v>
+      </c>
+      <c r="G29">
+        <v>-0.01321936972198182</v>
+      </c>
+      <c r="H29">
+        <v>0.002553127115772819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03811847803854636</v>
+        <v>-0.0308292064643067</v>
       </c>
       <c r="C30">
-        <v>-0.04960189123917261</v>
+        <v>-0.08004951262386799</v>
       </c>
       <c r="D30">
-        <v>-0.05443921475298324</v>
+        <v>-0.02558215871697218</v>
       </c>
       <c r="E30">
-        <v>0.01260354609950179</v>
+        <v>-0.0009768614912299574</v>
       </c>
       <c r="F30">
-        <v>0.07895901638393045</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.0324580906553722</v>
+      </c>
+      <c r="G30">
+        <v>-0.03926835279414194</v>
+      </c>
+      <c r="H30">
+        <v>-0.0299990463550623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04691100798956994</v>
+        <v>-0.03292134497265725</v>
       </c>
       <c r="C31">
-        <v>0.004468643107796414</v>
+        <v>-0.02251991396804568</v>
       </c>
       <c r="D31">
-        <v>-0.0125167012202212</v>
+        <v>-0.001793515981842243</v>
       </c>
       <c r="E31">
-        <v>-0.00582431124908122</v>
+        <v>-0.008800991553660696</v>
       </c>
       <c r="F31">
-        <v>0.0205140053130709</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02836001956751112</v>
+      </c>
+      <c r="G31">
+        <v>0.006517851462339906</v>
+      </c>
+      <c r="H31">
+        <v>0.007951859589729771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.008634961110226148</v>
+        <v>-0.008090464910927731</v>
       </c>
       <c r="C32">
-        <v>0.03194921912445452</v>
+        <v>-0.01885244852420236</v>
       </c>
       <c r="D32">
-        <v>-0.02578001838220026</v>
+        <v>0.007433052165528011</v>
       </c>
       <c r="E32">
-        <v>-0.00370917498873401</v>
+        <v>-0.000415613567318745</v>
       </c>
       <c r="F32">
-        <v>0.04448570102209479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01082971605924945</v>
+      </c>
+      <c r="G32">
+        <v>-0.08666087656575114</v>
+      </c>
+      <c r="H32">
+        <v>-0.04988611875901864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03349644406682491</v>
+        <v>-0.01786197027727572</v>
       </c>
       <c r="C33">
-        <v>-0.02016126413805027</v>
+        <v>-0.04063182520965522</v>
       </c>
       <c r="D33">
-        <v>-0.03666949103996416</v>
+        <v>-0.01266042859473392</v>
       </c>
       <c r="E33">
-        <v>0.01717595949812335</v>
+        <v>0.007726905008965358</v>
       </c>
       <c r="F33">
-        <v>0.04372715550602044</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.006575090791040073</v>
+      </c>
+      <c r="G33">
+        <v>-0.007206639076043101</v>
+      </c>
+      <c r="H33">
+        <v>-0.03383445985872727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0274004197910215</v>
+        <v>-0.02843731337356058</v>
       </c>
       <c r="C34">
-        <v>0.005676339472749693</v>
+        <v>-0.04691825878937103</v>
       </c>
       <c r="D34">
-        <v>-0.04055509635947507</v>
+        <v>0.006934549404164833</v>
       </c>
       <c r="E34">
-        <v>-0.0160189053949521</v>
+        <v>-0.02185142736676323</v>
       </c>
       <c r="F34">
-        <v>0.02410681927164198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.009284297998744634</v>
+      </c>
+      <c r="G34">
+        <v>-0.02111965537627213</v>
+      </c>
+      <c r="H34">
+        <v>-0.02084790353802282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01572596025299755</v>
+        <v>-0.006703544089044268</v>
       </c>
       <c r="C36">
-        <v>0.00588623450176801</v>
+        <v>0.001528466210121225</v>
       </c>
       <c r="D36">
-        <v>-0.002637976929841183</v>
+        <v>-0.01031636609534352</v>
       </c>
       <c r="E36">
-        <v>0.01083094651876763</v>
+        <v>0.0001387698765301673</v>
       </c>
       <c r="F36">
-        <v>0.02067007952295384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01642866060769047</v>
+      </c>
+      <c r="G36">
+        <v>-0.001411681762453617</v>
+      </c>
+      <c r="H36">
+        <v>-0.008907990083631348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02203584345442023</v>
+        <v>-0.02656710933807732</v>
       </c>
       <c r="C38">
-        <v>-0.001312294123232662</v>
+        <v>-0.01434283157151801</v>
       </c>
       <c r="D38">
-        <v>-0.003834828286346927</v>
+        <v>0.009662850018204727</v>
       </c>
       <c r="E38">
-        <v>0.03664399851810218</v>
+        <v>-0.002453448647406395</v>
       </c>
       <c r="F38">
-        <v>0.03463981640962708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.0155814951404558</v>
+      </c>
+      <c r="G38">
+        <v>-0.008425773109216234</v>
+      </c>
+      <c r="H38">
+        <v>-0.01085366175136551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02217542520311678</v>
+        <v>-0.006857088251488709</v>
       </c>
       <c r="C39">
-        <v>0.00338745729874569</v>
+        <v>-0.08159987841027122</v>
       </c>
       <c r="D39">
-        <v>-0.05750965457304695</v>
+        <v>-0.01282035572103111</v>
       </c>
       <c r="E39">
-        <v>0.003771587108624059</v>
+        <v>-0.004958743328512806</v>
       </c>
       <c r="F39">
-        <v>0.04785782871526369</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.002162775521238608</v>
+      </c>
+      <c r="G39">
+        <v>-0.02982270470973742</v>
+      </c>
+      <c r="H39">
+        <v>-0.05082687222356344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01434420780866045</v>
+        <v>-0.01955668230484851</v>
       </c>
       <c r="C40">
-        <v>-0.03471212761544543</v>
+        <v>-0.02741704580842269</v>
       </c>
       <c r="D40">
-        <v>-0.02878718814400477</v>
+        <v>-0.009999443840180583</v>
       </c>
       <c r="E40">
-        <v>-0.004990832140511897</v>
+        <v>-0.002707531221698638</v>
       </c>
       <c r="F40">
-        <v>0.0220099345134545</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02973954120575407</v>
+      </c>
+      <c r="G40">
+        <v>-0.02245802842277934</v>
+      </c>
+      <c r="H40">
+        <v>-0.02958328817318384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0138391552211297</v>
+        <v>-0.01285265007170936</v>
       </c>
       <c r="C41">
-        <v>0.002249007498855683</v>
+        <v>0.01028650843846133</v>
       </c>
       <c r="D41">
-        <v>0.01159023714538973</v>
+        <v>-0.002092098562578567</v>
       </c>
       <c r="E41">
-        <v>0.02126864881637959</v>
+        <v>-0.003965876109974904</v>
       </c>
       <c r="F41">
-        <v>-0.005426981061513591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01392897708945241</v>
+      </c>
+      <c r="G41">
+        <v>0.005192955791177753</v>
+      </c>
+      <c r="H41">
+        <v>-0.00744837220778634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2791778284576116</v>
+        <v>-0.07354798276532848</v>
       </c>
       <c r="C42">
-        <v>-0.1238395412115801</v>
+        <v>-0.1342012132128599</v>
       </c>
       <c r="D42">
-        <v>-0.3415931628890251</v>
+        <v>-0.1224015194482299</v>
       </c>
       <c r="E42">
-        <v>0.6509569007224516</v>
+        <v>0.1303139001884533</v>
       </c>
       <c r="F42">
-        <v>-0.5556505635285367</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.121565438464901</v>
+      </c>
+      <c r="G42">
+        <v>0.8278430197685148</v>
+      </c>
+      <c r="H42">
+        <v>-0.4709902005428143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0173175550066802</v>
+        <v>-0.01679518667951215</v>
       </c>
       <c r="C43">
-        <v>-0.00189960709832973</v>
+        <v>0.005061502456161565</v>
       </c>
       <c r="D43">
-        <v>0.0049401642407632</v>
+        <v>-0.002677581161484885</v>
       </c>
       <c r="E43">
-        <v>0.0236135967290922</v>
+        <v>-0.001505099008856857</v>
       </c>
       <c r="F43">
-        <v>0.007538143987599859</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.0104527753898528</v>
+      </c>
+      <c r="G43">
+        <v>0.001365710107675384</v>
+      </c>
+      <c r="H43">
+        <v>-0.01580929376053699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01638636539333492</v>
+        <v>-0.007832788734643274</v>
       </c>
       <c r="C44">
-        <v>0.01508001768228631</v>
+        <v>-0.04166477405508438</v>
       </c>
       <c r="D44">
-        <v>-0.02101786388198259</v>
+        <v>-0.006555727427236928</v>
       </c>
       <c r="E44">
-        <v>0.03689241101944865</v>
+        <v>0.008274033513568381</v>
       </c>
       <c r="F44">
-        <v>0.0593621299332525</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02149363959345084</v>
+      </c>
+      <c r="G44">
+        <v>-0.02320961199850433</v>
+      </c>
+      <c r="H44">
+        <v>-0.045543873166089</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01604457653387678</v>
+        <v>-0.001230273437356617</v>
       </c>
       <c r="C46">
-        <v>0.005838825293784637</v>
+        <v>-0.008965929188061477</v>
       </c>
       <c r="D46">
-        <v>-0.03543657964932318</v>
+        <v>-0.01129858603112703</v>
       </c>
       <c r="E46">
-        <v>0.004587567574704242</v>
+        <v>0.001153205227187671</v>
       </c>
       <c r="F46">
-        <v>0.06469777985271986</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.0181560614890694</v>
+      </c>
+      <c r="G46">
+        <v>-0.01188087469992571</v>
+      </c>
+      <c r="H46">
+        <v>-0.004719471962141424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06882169536082364</v>
+        <v>-0.05566066614472095</v>
       </c>
       <c r="C47">
-        <v>-0.01736064163610351</v>
+        <v>-0.05483289862880692</v>
       </c>
       <c r="D47">
-        <v>-0.01451904797927297</v>
+        <v>0.006049202096430791</v>
       </c>
       <c r="E47">
-        <v>-0.02167271228972456</v>
+        <v>-0.006170816351879225</v>
       </c>
       <c r="F47">
-        <v>-0.00874483149128942</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02675778969067786</v>
+      </c>
+      <c r="G47">
+        <v>0.02281002765248665</v>
+      </c>
+      <c r="H47">
+        <v>0.03724159017316842</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02231586622035638</v>
+        <v>-0.00971509411194158</v>
       </c>
       <c r="C48">
-        <v>0.003510398342271059</v>
+        <v>-0.007071824369928537</v>
       </c>
       <c r="D48">
-        <v>-0.006251997421036513</v>
+        <v>-0.0008742020696358188</v>
       </c>
       <c r="E48">
-        <v>0.006530443409526761</v>
+        <v>-0.001520097717961348</v>
       </c>
       <c r="F48">
-        <v>0.0226170480057605</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.0186154424850139</v>
+      </c>
+      <c r="G48">
+        <v>-0.002869766608354796</v>
+      </c>
+      <c r="H48">
+        <v>-0.004475782438504005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08273489544872649</v>
+        <v>-0.05829568552446579</v>
       </c>
       <c r="C50">
-        <v>0.01025672707332922</v>
+        <v>-0.05287340334886866</v>
       </c>
       <c r="D50">
-        <v>-0.03662807311622399</v>
+        <v>0.00489607312145487</v>
       </c>
       <c r="E50">
-        <v>-0.01892999676329383</v>
+        <v>-0.007757616885170564</v>
       </c>
       <c r="F50">
-        <v>0.02609813446943477</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.05327857125132848</v>
+      </c>
+      <c r="G50">
+        <v>0.01104949034470672</v>
+      </c>
+      <c r="H50">
+        <v>0.03269162117045375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01174099197205961</v>
+        <v>-0.007424998549362206</v>
       </c>
       <c r="C51">
-        <v>0.009233653636757364</v>
+        <v>-0.01058310604924606</v>
       </c>
       <c r="D51">
-        <v>0.01311593352877217</v>
+        <v>-0.007359703858367016</v>
       </c>
       <c r="E51">
-        <v>0.04272812902546562</v>
+        <v>-0.005128369558767542</v>
       </c>
       <c r="F51">
-        <v>0.06062500572666341</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.02177639371748757</v>
+      </c>
+      <c r="G51">
+        <v>-0.01836956643738849</v>
+      </c>
+      <c r="H51">
+        <v>-0.03384316415236514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09880176816616447</v>
+        <v>-0.07870228532332255</v>
       </c>
       <c r="C53">
-        <v>-0.01832671329369622</v>
+        <v>-0.08678903349997259</v>
       </c>
       <c r="D53">
-        <v>-0.04134063147472981</v>
+        <v>0.006343467432536655</v>
       </c>
       <c r="E53">
-        <v>-0.0662243518704512</v>
+        <v>-0.0304960555732674</v>
       </c>
       <c r="F53">
-        <v>-0.01219914819845494</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02634072534172921</v>
+      </c>
+      <c r="G53">
+        <v>0.02610511761158296</v>
+      </c>
+      <c r="H53">
+        <v>0.04722874286022058</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02694322578249934</v>
+        <v>-0.01912529184479522</v>
       </c>
       <c r="C54">
-        <v>0.008114480617441829</v>
+        <v>0.003664406109598955</v>
       </c>
       <c r="D54">
-        <v>0.007252520217038747</v>
+        <v>0.005405597899623827</v>
       </c>
       <c r="E54">
-        <v>-0.0008012644128499796</v>
+        <v>0.002154245313253087</v>
       </c>
       <c r="F54">
-        <v>0.02255121842594257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02509410549072067</v>
+      </c>
+      <c r="G54">
+        <v>-0.01008899311648938</v>
+      </c>
+      <c r="H54">
+        <v>-0.0003703120253624405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0794241191352308</v>
+        <v>-0.05479340557870905</v>
       </c>
       <c r="C55">
-        <v>-0.01547865245175679</v>
+        <v>-0.07497325663175024</v>
       </c>
       <c r="D55">
-        <v>-0.06000957536125914</v>
+        <v>0.004292571946973678</v>
       </c>
       <c r="E55">
-        <v>-0.0366601476491605</v>
+        <v>-0.0184380600692395</v>
       </c>
       <c r="F55">
-        <v>-0.01722904860993333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02421962750701147</v>
+      </c>
+      <c r="G55">
+        <v>0.0326613474416303</v>
+      </c>
+      <c r="H55">
+        <v>0.04083457107668153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1310064351910906</v>
+        <v>-0.1166801568120169</v>
       </c>
       <c r="C56">
-        <v>-0.03752117456775418</v>
+        <v>-0.1215334867012434</v>
       </c>
       <c r="D56">
-        <v>-0.05386161376577709</v>
+        <v>0.01483076974467283</v>
       </c>
       <c r="E56">
-        <v>-0.09576787055201198</v>
+        <v>-0.03191042136965667</v>
       </c>
       <c r="F56">
-        <v>-0.04244877246211037</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.01143624880520855</v>
+      </c>
+      <c r="G56">
+        <v>0.04279231664446123</v>
+      </c>
+      <c r="H56">
+        <v>0.0861746784776834</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04118550271828699</v>
+        <v>-0.01889054643030047</v>
       </c>
       <c r="C57">
-        <v>-0.009288810525797109</v>
+        <v>-0.01895856543314139</v>
       </c>
       <c r="D57">
-        <v>-0.01696095661850932</v>
+        <v>-0.02361299667133522</v>
       </c>
       <c r="E57">
-        <v>0.0501277460621908</v>
+        <v>0.03035353009785668</v>
       </c>
       <c r="F57">
-        <v>0.03168181363605624</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.0158419781095474</v>
+      </c>
+      <c r="G57">
+        <v>-0.02996407257965512</v>
+      </c>
+      <c r="H57">
+        <v>-0.03971989828331016</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.167512138966875</v>
+        <v>-0.06712190202356723</v>
       </c>
       <c r="C58">
-        <v>-0.150812393653329</v>
+        <v>-0.1465351815574619</v>
       </c>
       <c r="D58">
-        <v>-0.2219833339465556</v>
+        <v>-0.0188810602241889</v>
       </c>
       <c r="E58">
-        <v>0.286334676772496</v>
+        <v>0.9609828359584213</v>
       </c>
       <c r="F58">
-        <v>0.640885206308928</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.01177904580984209</v>
+      </c>
+      <c r="G58">
+        <v>-0.1291070219466678</v>
+      </c>
+      <c r="H58">
+        <v>0.1054088771257091</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08282659756143293</v>
+        <v>-0.1861419554655303</v>
       </c>
       <c r="C59">
-        <v>-0.04716846291755103</v>
+        <v>0.1906724084549971</v>
       </c>
       <c r="D59">
-        <v>0.1859854916584773</v>
+        <v>0.02919713627647406</v>
       </c>
       <c r="E59">
-        <v>0.06807984567698122</v>
+        <v>0.01763602447075418</v>
       </c>
       <c r="F59">
-        <v>0.04058238018542106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.00843942832503043</v>
+      </c>
+      <c r="G59">
+        <v>-0.01248396629740035</v>
+      </c>
+      <c r="H59">
+        <v>-0.01375950295314396</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1700796470206724</v>
+        <v>-0.271474032876979</v>
       </c>
       <c r="C60">
-        <v>-0.08477694949396601</v>
+        <v>-0.1054413004328697</v>
       </c>
       <c r="D60">
-        <v>0.02137716299973402</v>
+        <v>0.008014843839543139</v>
       </c>
       <c r="E60">
-        <v>0.04687595904369029</v>
+        <v>-0.07030331417599418</v>
       </c>
       <c r="F60">
-        <v>0.1158949640910649</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1756416813781402</v>
+      </c>
+      <c r="G60">
+        <v>-0.2253702323283351</v>
+      </c>
+      <c r="H60">
+        <v>-0.3090798030396791</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02636154076243744</v>
+        <v>-0.0151759897109906</v>
       </c>
       <c r="C61">
-        <v>-0.001139717717414879</v>
+        <v>-0.06249851658135092</v>
       </c>
       <c r="D61">
-        <v>-0.04553536906195569</v>
+        <v>-0.005100396499378542</v>
       </c>
       <c r="E61">
-        <v>0.004109361700554467</v>
+        <v>-0.007588304655060068</v>
       </c>
       <c r="F61">
-        <v>0.02136494019905886</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.001485260131411469</v>
+      </c>
+      <c r="G61">
+        <v>-0.0283872681330195</v>
+      </c>
+      <c r="H61">
+        <v>-0.03280434193406902</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01779546816243467</v>
+        <v>-0.007875118575979995</v>
       </c>
       <c r="C63">
-        <v>0.005962447478050387</v>
+        <v>-0.02088815745999718</v>
       </c>
       <c r="D63">
-        <v>-0.01903218056291154</v>
+        <v>-0.007320519407707227</v>
       </c>
       <c r="E63">
-        <v>8.198841140579589e-06</v>
+        <v>-0.01429181351094298</v>
       </c>
       <c r="F63">
-        <v>0.008565064627312158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02027281155515472</v>
+      </c>
+      <c r="G63">
+        <v>-0.005469472675099028</v>
+      </c>
+      <c r="H63">
+        <v>0.004496040853065025</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04259782653646366</v>
+        <v>-0.03740578043947012</v>
       </c>
       <c r="C64">
-        <v>-0.002669014182842858</v>
+        <v>-0.03849413603265122</v>
       </c>
       <c r="D64">
-        <v>-0.02775965343468474</v>
+        <v>-0.003041017061336786</v>
       </c>
       <c r="E64">
-        <v>0.0003770226929199369</v>
+        <v>-0.01718007417644391</v>
       </c>
       <c r="F64">
-        <v>0.02175968384438007</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01156637112801608</v>
+      </c>
+      <c r="G64">
+        <v>0.002660047832263999</v>
+      </c>
+      <c r="H64">
+        <v>-0.02168748455723002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04929115247100741</v>
+        <v>-0.0594958362634006</v>
       </c>
       <c r="C65">
-        <v>-0.006712085436461278</v>
+        <v>-0.08571489474806722</v>
       </c>
       <c r="D65">
-        <v>-0.04142314280012606</v>
+        <v>-0.01452656252082745</v>
       </c>
       <c r="E65">
-        <v>-0.02094533229683258</v>
+        <v>-0.01802687690817361</v>
       </c>
       <c r="F65">
-        <v>0.03831744181733784</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01811522265212885</v>
+      </c>
+      <c r="G65">
+        <v>-0.04735809200333994</v>
+      </c>
+      <c r="H65">
+        <v>-0.02204244275981094</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04147133781688925</v>
+        <v>-0.02460885561363118</v>
       </c>
       <c r="C66">
-        <v>-0.015907215218927</v>
+        <v>-0.119261511311595</v>
       </c>
       <c r="D66">
-        <v>-0.06617543986748353</v>
+        <v>-0.01125225008445805</v>
       </c>
       <c r="E66">
-        <v>-0.03495131099676419</v>
+        <v>-0.009659111663157747</v>
       </c>
       <c r="F66">
-        <v>0.06015856485313479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01938963845744781</v>
+      </c>
+      <c r="G66">
+        <v>-0.05316985323836738</v>
+      </c>
+      <c r="H66">
+        <v>-0.04334175532153253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03501713871865787</v>
+        <v>-0.05052053657228617</v>
       </c>
       <c r="C67">
-        <v>-0.0067007731615728</v>
+        <v>-0.02271589412646791</v>
       </c>
       <c r="D67">
-        <v>0.005350912414744154</v>
+        <v>0.008986855267395585</v>
       </c>
       <c r="E67">
-        <v>0.02312794116357798</v>
+        <v>-0.009168591656108999</v>
       </c>
       <c r="F67">
-        <v>0.02184572691815515</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01429801415803719</v>
+      </c>
+      <c r="G67">
+        <v>-0.0145064746587653</v>
+      </c>
+      <c r="H67">
+        <v>-0.006167642052177629</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09207271829772576</v>
+        <v>-0.180034959168205</v>
       </c>
       <c r="C68">
-        <v>-0.04719466580306094</v>
+        <v>0.2362942878670143</v>
       </c>
       <c r="D68">
-        <v>0.2141948256371125</v>
+        <v>0.01155733202684829</v>
       </c>
       <c r="E68">
-        <v>0.07249574208000738</v>
+        <v>0.02910830166755382</v>
       </c>
       <c r="F68">
-        <v>0.01365265812156734</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.0286542386182344</v>
+      </c>
+      <c r="G68">
+        <v>0.02508591170276443</v>
+      </c>
+      <c r="H68">
+        <v>0.004332328856174769</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05823593755886013</v>
+        <v>-0.05720358744766828</v>
       </c>
       <c r="C69">
-        <v>-0.01726658261945553</v>
+        <v>-0.05146873484335143</v>
       </c>
       <c r="D69">
-        <v>-0.02068890020445101</v>
+        <v>0.01071790062143836</v>
       </c>
       <c r="E69">
-        <v>-0.02635420386978551</v>
+        <v>-0.02742465547434931</v>
       </c>
       <c r="F69">
-        <v>0.00448634022847595</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0114269240579306</v>
+      </c>
+      <c r="G69">
+        <v>0.004468781259704932</v>
+      </c>
+      <c r="H69">
+        <v>0.01564474475876138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08934643903223402</v>
+        <v>-0.1613869519308638</v>
       </c>
       <c r="C71">
-        <v>-0.02934087681417304</v>
+        <v>0.1952882988145722</v>
       </c>
       <c r="D71">
-        <v>0.2045103643294638</v>
+        <v>0.01654556279547826</v>
       </c>
       <c r="E71">
-        <v>0.1145242985285714</v>
+        <v>0.04271188545574946</v>
       </c>
       <c r="F71">
-        <v>-0.01525596012254436</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.04633503297046435</v>
+      </c>
+      <c r="G71">
+        <v>0.02973816213215661</v>
+      </c>
+      <c r="H71">
+        <v>-0.010944128625684</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.0932660377120874</v>
+        <v>-0.06265760444391974</v>
       </c>
       <c r="C72">
-        <v>-0.02899478682428816</v>
+        <v>-0.09187050203380859</v>
       </c>
       <c r="D72">
-        <v>-0.0938809059586609</v>
+        <v>0.01121602263298202</v>
       </c>
       <c r="E72">
-        <v>-0.05047937697862414</v>
+        <v>-0.03333402919227323</v>
       </c>
       <c r="F72">
-        <v>0.1488748982849428</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.03358410775412182</v>
+      </c>
+      <c r="G72">
+        <v>-0.05541879095812388</v>
+      </c>
+      <c r="H72">
+        <v>-0.02643770150827238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2053706619513659</v>
+        <v>-0.3489799258864204</v>
       </c>
       <c r="C73">
-        <v>-0.1390247256258424</v>
+        <v>-0.1674527442126421</v>
       </c>
       <c r="D73">
-        <v>-0.0182751888221615</v>
+        <v>0.003089250947310053</v>
       </c>
       <c r="E73">
-        <v>0.1024979235968855</v>
+        <v>-0.05496502422496865</v>
       </c>
       <c r="F73">
-        <v>0.1267673347719679</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2320862612923942</v>
+      </c>
+      <c r="G73">
+        <v>-0.2482192650710013</v>
+      </c>
+      <c r="H73">
+        <v>-0.3992790640466439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1292839619814534</v>
+        <v>-0.1074879007825819</v>
       </c>
       <c r="C74">
-        <v>-0.03749375492968425</v>
+        <v>-0.1235390756246097</v>
       </c>
       <c r="D74">
-        <v>-0.04978783020266463</v>
+        <v>0.01328698683249716</v>
       </c>
       <c r="E74">
-        <v>-0.0763857574663567</v>
+        <v>-0.03549202408841395</v>
       </c>
       <c r="F74">
-        <v>-0.04185711769703927</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.02856891076201236</v>
+      </c>
+      <c r="G74">
+        <v>0.03456467768661345</v>
+      </c>
+      <c r="H74">
+        <v>0.06621250604047842</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2323589542676592</v>
+        <v>-0.2254052560409049</v>
       </c>
       <c r="C75">
-        <v>-0.08424782864774061</v>
+        <v>-0.2025146009221334</v>
       </c>
       <c r="D75">
-        <v>-0.06947113493998147</v>
+        <v>0.03286547241369353</v>
       </c>
       <c r="E75">
-        <v>-0.2012467662829259</v>
+        <v>-0.04041771410983403</v>
       </c>
       <c r="F75">
-        <v>-0.0224686747680186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.01217045934535012</v>
+      </c>
+      <c r="G75">
+        <v>0.07523863669567639</v>
+      </c>
+      <c r="H75">
+        <v>0.1934068287280725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2549286349827721</v>
+        <v>-0.1465375546842797</v>
       </c>
       <c r="C76">
-        <v>-0.067612510858336</v>
+        <v>-0.1660328786504835</v>
       </c>
       <c r="D76">
-        <v>-0.08288519380303562</v>
+        <v>0.02553221285811049</v>
       </c>
       <c r="E76">
-        <v>-0.2504047785856889</v>
+        <v>-0.0605610798718196</v>
       </c>
       <c r="F76">
-        <v>-0.08360663635796788</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.04487264274077968</v>
+      </c>
+      <c r="G76">
+        <v>0.06925445257497095</v>
+      </c>
+      <c r="H76">
+        <v>0.1588596709351969</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.0872486736752973</v>
+        <v>-0.04761487414370041</v>
       </c>
       <c r="C77">
-        <v>-0.03008394168377031</v>
+        <v>-0.06900062152069365</v>
       </c>
       <c r="D77">
-        <v>-0.08069329480574965</v>
+        <v>-0.01261239374971866</v>
       </c>
       <c r="E77">
-        <v>0.09515779798880949</v>
+        <v>0.03185553026582404</v>
       </c>
       <c r="F77">
-        <v>0.03753981677767655</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.02769199829416914</v>
+      </c>
+      <c r="G77">
+        <v>0.02527768285267815</v>
+      </c>
+      <c r="H77">
+        <v>-0.006415775961919851</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03135670373876061</v>
+        <v>-0.02839913711567087</v>
       </c>
       <c r="C78">
-        <v>0.005068101624490536</v>
+        <v>-0.05960685148671807</v>
       </c>
       <c r="D78">
-        <v>-0.05956520283667469</v>
+        <v>-0.004971632938287423</v>
       </c>
       <c r="E78">
-        <v>0.01000051191743989</v>
+        <v>0.003908735053298826</v>
       </c>
       <c r="F78">
-        <v>0.0678331847137225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.0004886870545454427</v>
+      </c>
+      <c r="G78">
+        <v>-0.04183555073846144</v>
+      </c>
+      <c r="H78">
+        <v>-0.03805092111040531</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.3984340292296242</v>
+        <v>-0.0824917226849526</v>
       </c>
       <c r="C80">
-        <v>0.8969655523587932</v>
+        <v>-0.09886778683269348</v>
       </c>
       <c r="D80">
-        <v>0.04416257966969465</v>
+        <v>-0.01225770020091365</v>
       </c>
       <c r="E80">
-        <v>0.05563530622358735</v>
+        <v>-0.06365647082477131</v>
       </c>
       <c r="F80">
-        <v>0.03371430144416738</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.9156134674406223</v>
+      </c>
+      <c r="G80">
+        <v>-0.237510769650945</v>
+      </c>
+      <c r="H80">
+        <v>-0.1355618281163416</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1879686027962268</v>
+        <v>-0.1352232451343846</v>
       </c>
       <c r="C81">
-        <v>-0.05799812433656411</v>
+        <v>-0.1260197101347824</v>
       </c>
       <c r="D81">
-        <v>-0.03699082689750195</v>
+        <v>0.01884346813510781</v>
       </c>
       <c r="E81">
-        <v>-0.1580950064875847</v>
+        <v>-0.02344045415455547</v>
       </c>
       <c r="F81">
-        <v>-0.007968589962531835</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.02992964565646235</v>
+      </c>
+      <c r="G81">
+        <v>0.04429834960912983</v>
+      </c>
+      <c r="H81">
+        <v>0.1150854615387913</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.01257572915215463</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.01087379269350333</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.0009532827794316204</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01513201686369544</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.006474612879272028</v>
+      </c>
+      <c r="G82">
+        <v>-0.007817930793996909</v>
+      </c>
+      <c r="H82">
+        <v>-0.006756259829846734</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03283429121477109</v>
+        <v>-0.02353406667938444</v>
       </c>
       <c r="C83">
-        <v>-0.002901566460290085</v>
+        <v>-0.01768943030702054</v>
       </c>
       <c r="D83">
-        <v>-0.0133721880400299</v>
+        <v>-0.00428459705347665</v>
       </c>
       <c r="E83">
-        <v>0.03886284085942762</v>
+        <v>0.01604900123217897</v>
       </c>
       <c r="F83">
-        <v>0.03678435958589733</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01492552538971083</v>
+      </c>
+      <c r="G83">
+        <v>-0.02775440946283668</v>
+      </c>
+      <c r="H83">
+        <v>-0.03406009698388703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2342015194468854</v>
+        <v>-0.2213338455112221</v>
       </c>
       <c r="C85">
-        <v>-0.08746770546919642</v>
+        <v>-0.2146428738669383</v>
       </c>
       <c r="D85">
-        <v>-0.09253577081554776</v>
+        <v>0.02104703510536885</v>
       </c>
       <c r="E85">
-        <v>-0.2231301401719132</v>
+        <v>-0.07163863745841764</v>
       </c>
       <c r="F85">
-        <v>-0.0521409238019819</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.02520716179738565</v>
+      </c>
+      <c r="G85">
+        <v>0.07988309682753854</v>
+      </c>
+      <c r="H85">
+        <v>0.1766327730609079</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003830598876892202</v>
+        <v>-0.006712862531223279</v>
       </c>
       <c r="C86">
-        <v>0.008914263412174555</v>
+        <v>-0.01879496729651986</v>
       </c>
       <c r="D86">
-        <v>-0.04240458075329999</v>
+        <v>-0.008565736139755564</v>
       </c>
       <c r="E86">
-        <v>0.02096313472899242</v>
+        <v>0.006289084995797992</v>
       </c>
       <c r="F86">
-        <v>0.07220420235501811</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03327224010767306</v>
+      </c>
+      <c r="G86">
+        <v>-0.01220218014119479</v>
+      </c>
+      <c r="H86">
+        <v>-0.04409504823956446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02528381486875029</v>
+        <v>-0.003616529814996321</v>
       </c>
       <c r="C87">
-        <v>-0.004408068950959044</v>
+        <v>-0.03258465696451911</v>
       </c>
       <c r="D87">
-        <v>-0.04450871701938946</v>
+        <v>-0.01059014485570921</v>
       </c>
       <c r="E87">
-        <v>0.03801097122565891</v>
+        <v>0.04143750093717963</v>
       </c>
       <c r="F87">
-        <v>0.07920113486663061</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.0097921029242142</v>
+      </c>
+      <c r="G87">
+        <v>-0.03996097714568869</v>
+      </c>
+      <c r="H87">
+        <v>-0.05375620992378197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03933267987561624</v>
+        <v>-0.05964863111230848</v>
       </c>
       <c r="C88">
-        <v>-0.008945292171268569</v>
+        <v>-0.03933864074115986</v>
       </c>
       <c r="D88">
-        <v>0.001655198779428484</v>
+        <v>-0.01932978075168086</v>
       </c>
       <c r="E88">
-        <v>0.002538036751630118</v>
+        <v>-0.009580547782505481</v>
       </c>
       <c r="F88">
-        <v>-0.01265223390841025</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.004580784504142673</v>
+      </c>
+      <c r="G88">
+        <v>-0.02598737331988481</v>
+      </c>
+      <c r="H88">
+        <v>-0.01994391059151953</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1487584307719192</v>
+        <v>-0.2833162064962998</v>
       </c>
       <c r="C89">
-        <v>-0.09214545332462047</v>
+        <v>0.328111639651961</v>
       </c>
       <c r="D89">
-        <v>0.3641101640867723</v>
+        <v>0.02783605748405689</v>
       </c>
       <c r="E89">
-        <v>0.06921982080745996</v>
+        <v>0.01613168977366508</v>
       </c>
       <c r="F89">
-        <v>0.03208770897967264</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01392008206619633</v>
+      </c>
+      <c r="G89">
+        <v>0.01722133232785838</v>
+      </c>
+      <c r="H89">
+        <v>0.01375009048502173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1002816152463196</v>
+        <v>-0.232875724090988</v>
       </c>
       <c r="C90">
-        <v>-0.07174283733936532</v>
+        <v>0.2928154415039551</v>
       </c>
       <c r="D90">
-        <v>0.3273157191874917</v>
+        <v>0.02580210947124973</v>
       </c>
       <c r="E90">
-        <v>0.0773769542081445</v>
+        <v>0.02961240647125842</v>
       </c>
       <c r="F90">
-        <v>-0.02353643191842673</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01799997719629584</v>
+      </c>
+      <c r="G90">
+        <v>0.04926863378288511</v>
+      </c>
+      <c r="H90">
+        <v>0.03028515186523748</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2743898964977511</v>
+        <v>-0.1990012176574797</v>
       </c>
       <c r="C91">
-        <v>-0.1084589976061991</v>
+        <v>-0.1675259153329139</v>
       </c>
       <c r="D91">
-        <v>-0.09613957844365914</v>
+        <v>0.02970192149950421</v>
       </c>
       <c r="E91">
-        <v>-0.2309920472867907</v>
+        <v>-0.05434032769445003</v>
       </c>
       <c r="F91">
-        <v>-0.1311491451571652</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.0219783133734738</v>
+      </c>
+      <c r="G91">
+        <v>0.1005383406861924</v>
+      </c>
+      <c r="H91">
+        <v>0.1809911161365167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2027636984813991</v>
+        <v>-0.2532282597905087</v>
       </c>
       <c r="C92">
-        <v>-0.10951091658389</v>
+        <v>0.2268661017313072</v>
       </c>
       <c r="D92">
-        <v>0.3734977549364849</v>
+        <v>0.06709600276761098</v>
       </c>
       <c r="E92">
-        <v>-0.03550738809983432</v>
+        <v>0.04085570752341401</v>
       </c>
       <c r="F92">
-        <v>-0.02075364899001279</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.06438004623948626</v>
+      </c>
+      <c r="G92">
+        <v>0.05286898172276767</v>
+      </c>
+      <c r="H92">
+        <v>0.1252954181764423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1418139935564403</v>
+        <v>-0.2681525390181285</v>
       </c>
       <c r="C93">
-        <v>-0.106904707958048</v>
+        <v>0.2881847342223096</v>
       </c>
       <c r="D93">
-        <v>0.3834472703805187</v>
+        <v>0.03508657903631398</v>
       </c>
       <c r="E93">
-        <v>0.1250531577422368</v>
+        <v>0.03604812710876202</v>
       </c>
       <c r="F93">
-        <v>-0.05476442451592464</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.005738948605703441</v>
+      </c>
+      <c r="G93">
+        <v>0.03930418087409319</v>
+      </c>
+      <c r="H93">
+        <v>-0.0122205227962881</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2832935487896168</v>
+        <v>-0.2541461469615763</v>
       </c>
       <c r="C94">
-        <v>-0.1399761765354481</v>
+        <v>-0.2115581818288147</v>
       </c>
       <c r="D94">
-        <v>-0.06015140881014882</v>
+        <v>0.018025158989888</v>
       </c>
       <c r="E94">
-        <v>-0.2760712115773993</v>
+        <v>-0.06487732986221653</v>
       </c>
       <c r="F94">
-        <v>-0.01660251985315888</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.04181741612390101</v>
+      </c>
+      <c r="G94">
+        <v>0.1299921518748486</v>
+      </c>
+      <c r="H94">
+        <v>0.4282400887771204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05517015987063602</v>
+        <v>-0.07625486046951661</v>
       </c>
       <c r="C95">
-        <v>-0.07415174542036865</v>
+        <v>-0.10706456104336</v>
       </c>
       <c r="D95">
-        <v>-0.03144862789835406</v>
+        <v>0.01053760402971299</v>
       </c>
       <c r="E95">
-        <v>0.02446171888890148</v>
+        <v>0.02008335179349866</v>
       </c>
       <c r="F95">
-        <v>-0.002776309653822051</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.08238554371771947</v>
+      </c>
+      <c r="G95">
+        <v>-0.02314068831233747</v>
+      </c>
+      <c r="H95">
+        <v>-0.1000316688665499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1733230593147908</v>
+        <v>-0.1943421406186944</v>
       </c>
       <c r="C98">
-        <v>-0.09108119576206289</v>
+        <v>-0.06271730484029751</v>
       </c>
       <c r="D98">
-        <v>0.02721536166496652</v>
+        <v>0.02825638821491737</v>
       </c>
       <c r="E98">
-        <v>0.1095584819521909</v>
+        <v>0.009053903477303123</v>
       </c>
       <c r="F98">
-        <v>0.1214333382710979</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.09975058947004575</v>
+      </c>
+      <c r="G98">
+        <v>-0.114736986658486</v>
+      </c>
+      <c r="H98">
+        <v>-0.2515400079050953</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003965462759850067</v>
+        <v>-0.004563944286982953</v>
       </c>
       <c r="C101">
-        <v>0.01018155407745349</v>
+        <v>-0.01591330192742034</v>
       </c>
       <c r="D101">
-        <v>-0.0351439662164052</v>
+        <v>-0.007573908799099145</v>
       </c>
       <c r="E101">
-        <v>0.0504417902048318</v>
+        <v>0.03085570247006701</v>
       </c>
       <c r="F101">
-        <v>0.1827492403498854</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02424760788591642</v>
+      </c>
+      <c r="G101">
+        <v>-0.03117325928924319</v>
+      </c>
+      <c r="H101">
+        <v>0.007929733421048728</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1177251863226292</v>
+        <v>-0.1128501114341352</v>
       </c>
       <c r="C102">
-        <v>-0.04167235417992776</v>
+        <v>-0.1009250016207229</v>
       </c>
       <c r="D102">
-        <v>-0.03956144350473509</v>
+        <v>0.003060129068117226</v>
       </c>
       <c r="E102">
-        <v>-0.1098653459594324</v>
+        <v>-0.04254017559850842</v>
       </c>
       <c r="F102">
-        <v>-0.05617173619527102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.005185583265477956</v>
+      </c>
+      <c r="G102">
+        <v>0.03001478934232756</v>
+      </c>
+      <c r="H102">
+        <v>0.07146475450833599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04005926651843075</v>
+        <v>-0.009086220959446098</v>
       </c>
       <c r="C103">
-        <v>0.006103604543184207</v>
+        <v>-0.0102069822786555</v>
       </c>
       <c r="D103">
-        <v>-0.01631692908539837</v>
+        <v>0.0001904989895325991</v>
       </c>
       <c r="E103">
-        <v>-0.028874345761357</v>
+        <v>0.001006745151233171</v>
       </c>
       <c r="F103">
-        <v>0.007490200283490621</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02025295180678283</v>
+      </c>
+      <c r="G103">
+        <v>0.002018279733202809</v>
+      </c>
+      <c r="H103">
+        <v>0.01054167749909493</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.08377587782500216</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.06336503402920898</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9809336009284791</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03837826904723021</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.02488068303896545</v>
+      </c>
+      <c r="G104">
+        <v>-0.07164534306997605</v>
+      </c>
+      <c r="H104">
+        <v>0.09943711971035545</v>
       </c>
     </row>
   </sheetData>
